--- a/doc/05_ファイル構成一覧表_ハイドレンジア.xlsx
+++ b/doc/05_ファイル構成一覧表_ハイドレンジア.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0C9203-6949-47BF-A647-D459073BC45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2933E3-A03F-41C5-9141-4367DCF9A0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1060" yWindow="250" windowWidth="14400" windowHeight="9750" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="213">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -848,6 +848,14 @@
     <rPh sb="0" eb="2">
       <t>ミキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -934,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,9 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -954,9 +959,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H98"/>
+  <dimension ref="B2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1308,213 +1310,213 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3">
+    <row r="3" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3">
+    <row r="4" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
         <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3">
+    <row r="5" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3">
+    <row r="6" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3">
+    <row r="7" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3">
+    <row r="8" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="3">
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1532,7 +1534,7 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1541,13 +1543,13 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
-        <f t="shared" ref="B14:B77" si="1">ROW()-2</f>
+        <f t="shared" ref="B14:B78" si="1">ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1556,7 +1558,7 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1565,10 +1567,10 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1577,7 +1579,7 @@
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1586,19 +1588,19 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1607,19 +1609,19 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1628,19 +1630,19 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1649,19 +1651,19 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1670,19 +1672,19 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1692,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
@@ -1703,7 +1705,7 @@
       <c r="F21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1713,18 +1715,18 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1740,12 +1742,12 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1761,12 +1763,12 @@
         <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1776,16 +1778,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>207</v>
@@ -1803,12 +1805,12 @@
         <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1824,12 +1826,12 @@
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1845,12 +1847,12 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1860,19 +1862,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>206</v>
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1887,12 +1889,12 @@
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1908,12 +1910,12 @@
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1929,12 +1931,12 @@
         <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1950,12 +1952,12 @@
         <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1971,12 +1973,12 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1992,12 +1994,12 @@
         <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2007,16 +2009,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>206</v>
@@ -2027,19 +2029,19 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2048,19 +2050,19 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2069,19 +2071,19 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2090,19 +2092,19 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2111,19 +2113,19 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2132,19 +2134,19 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2154,19 +2156,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>209</v>
+        <v>71</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2181,12 +2183,12 @@
         <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2202,12 +2204,12 @@
         <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2223,12 +2225,12 @@
         <v>25</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2244,12 +2246,12 @@
         <v>25</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2265,12 +2267,12 @@
         <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2286,12 +2288,12 @@
         <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2301,16 +2303,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>209</v>
@@ -2322,18 +2324,18 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2349,12 +2351,12 @@
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2370,12 +2372,12 @@
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2384,341 +2386,339 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G55" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="3">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="3" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G56" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="3" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G57" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="3" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F58" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G58" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="3">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C58" s="3" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="3">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="3" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G60" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="3">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C60" s="3" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="3">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C62" s="3" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="3">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C63" s="3" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="3">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C64" s="3" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="3">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C65" s="3" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C66" s="3" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F67" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C67" s="3" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G68" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="3">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F69" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="3">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="3">
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -2729,601 +2729,605 @@
         <v>35</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="3">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="C71" s="3" t="s">
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="3">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C72" s="3" t="s">
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G73" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="3">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F74" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="3">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C75" s="3" t="s">
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F76" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G76" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="3">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="D77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F77" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="3">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F78" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G78" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="3">
-        <f t="shared" ref="B78:B96" si="2">ROW()-2</f>
-        <v>76</v>
-      </c>
-      <c r="C78" s="3" t="s">
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1">
+        <f t="shared" ref="B79:B97" si="2">ROW()-2</f>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="3">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="3">
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="D80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="3">
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="1">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="D81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="3">
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="D82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="3">
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="D83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="3">
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="D84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="3">
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="3">
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="1">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="D86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="3">
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="D87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="3">
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="D88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="3">
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="D89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="3">
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="D90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="3">
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="D91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="3">
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="D92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="3">
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="3">
+      <c r="C93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="3">
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="3">
+      <c r="C95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="1">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F97" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G97" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H98" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3494,22 +3498,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3526,29 +3540,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>